--- a/MarsFramework/ExcelData/TestDataProfile.xlsx
+++ b/MarsFramework/ExcelData/TestDataProfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurle\Internship_MVP\Mars Standard Tasks\marsframework-master\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurle\Internship_MVP\Mars Standard Tasks\Specflow\Project-Specflow\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD9A90-A840-40F6-B39B-6269C0B764D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B812C7-9659-4DDF-9C8D-6A584B577BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
     <t>Between $500 and $1000 per month</t>
   </si>
   <si>
-    <t>This is description test 67980. Thanks();.</t>
+    <t>Qualified Test Analyst having experience in different types of testings. Analyzed business requirements to create test plan and test cases for manual and automated testing.</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
